--- a/data/trans_bre/P16A_n_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A_n_R2-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>17.79312779514577</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19.31424229014755</v>
+        <v>19.31424229014756</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4297503618555936</v>
@@ -649,7 +649,7 @@
         <v>0.4216140480747087</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4055438659212569</v>
+        <v>0.4055438659212572</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>10.6259229387005</v>
+        <v>10.53779506277848</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.248904627883054</v>
+        <v>8.371723521855973</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13.17879490948469</v>
+        <v>13.02871663929934</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14.61929913480649</v>
+        <v>14.76852353099168</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2997597036675229</v>
+        <v>0.2945168252627568</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1826803669770505</v>
+        <v>0.1636451404250752</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2880627125602477</v>
+        <v>0.2887309184822612</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2860239887070803</v>
+        <v>0.2876312030437921</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.64883383707703</v>
+        <v>18.53247890002296</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.52549800170606</v>
+        <v>17.41474946512542</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22.27717902396724</v>
+        <v>22.57642898063911</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.11000817737851</v>
+        <v>24.44929822411116</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5964485207113421</v>
+        <v>0.5936083393011592</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3793365708914098</v>
+        <v>0.3782411056854953</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5570638112472409</v>
+        <v>0.5715053221792993</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5469502978666695</v>
+        <v>0.5568727088184617</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>8.919248849790179</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.718534677065664</v>
+        <v>7.718534677065659</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9004741750194022</v>
@@ -749,7 +749,7 @@
         <v>0.5052015373704956</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2916244853325734</v>
+        <v>0.2916244853325732</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.211059333833116</v>
+        <v>6.145662410815314</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.301795187191473</v>
+        <v>8.368792522707466</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.44910335201241</v>
+        <v>6.502389869069816</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.991928292479993</v>
+        <v>5.015949652703142</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6008765116104496</v>
+        <v>0.5669971618760171</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4616997745483612</v>
+        <v>0.469830554356475</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3469320123204732</v>
+        <v>0.3520613245798254</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1822338906001891</v>
+        <v>0.1815717235895292</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.98797553821609</v>
+        <v>10.88175354546853</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.16105058939769</v>
+        <v>13.85529360688633</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.69492056341147</v>
+        <v>11.4872172705771</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.47411323706761</v>
+        <v>10.54727100164137</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.283741610104235</v>
+        <v>1.265085388050293</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9176307984373937</v>
+        <v>0.9071874476797279</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.717240800130807</v>
+        <v>0.7116691721525105</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4205738997799805</v>
+        <v>0.4214369156153039</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.507193285708542</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.308055472127922</v>
+        <v>4.308055472127917</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6012876461113961</v>
@@ -849,7 +849,7 @@
         <v>0.1504559744393956</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1728868054212578</v>
+        <v>0.1728868054212576</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.615514614012875</v>
+        <v>2.435480702740161</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.710837075066921</v>
+        <v>4.417618973314148</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.552903267262199</v>
+        <v>-2.319049916777401</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1296545002793514</v>
+        <v>-0.1221884412757271</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.157949028171742</v>
+        <v>0.1887643327632865</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2703582788186788</v>
+        <v>0.2754758412871963</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1338186593735578</v>
+        <v>-0.1245563283484594</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.004259030725531389</v>
+        <v>-0.004703386584660576</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.1143088988516</v>
+        <v>11.92204119630398</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.43299822958154</v>
+        <v>14.84620423058113</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.735508745651053</v>
+        <v>7.153425978315854</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.509002326393658</v>
+        <v>8.793041063229342</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.194206279502335</v>
+        <v>1.239676635282976</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.472200408387442</v>
+        <v>1.417640693050499</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.473671452736961</v>
+        <v>0.4908978327911024</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3812943650379799</v>
+        <v>0.3856016121993479</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>11.85803973274064</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10.79904259985703</v>
+        <v>10.79904259985702</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7058846547349035</v>
@@ -949,7 +949,7 @@
         <v>0.5160880408480173</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.364450004855345</v>
+        <v>0.3644500048553447</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.16188233719176</v>
+        <v>10.23889058916731</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>12.20924570733979</v>
+        <v>12.54748387600286</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9.47302499683393</v>
+        <v>9.679727270860162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8.637070430905156</v>
+        <v>8.672770495936533</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5535379614622813</v>
+        <v>0.5603435707946853</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4605191196991181</v>
+        <v>0.4748669523669205</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3889445209479552</v>
+        <v>0.4025590284359364</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2752182593980902</v>
+        <v>0.2826608306698504</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.23762231606501</v>
+        <v>14.31309110133251</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.89363154215527</v>
+        <v>16.90989455798488</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.09123597581096</v>
+        <v>14.23771044669176</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.89142987196535</v>
+        <v>12.92859782056836</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8739907865159598</v>
+        <v>0.8673580734810314</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6925007392756684</v>
+        <v>0.7012091319733983</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6377288912277351</v>
+        <v>0.6455613609530491</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4502321267677025</v>
+        <v>0.4585207013457849</v>
       </c>
     </row>
     <row r="16">
